--- a/data/teacher/And. Edson.xlsx
+++ b/data/teacher/And. Edson.xlsx
@@ -734,12 +734,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-Usin. CNC', -, -]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-Usin. CNC']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -766,17 +766,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-3A-Usin. CNC', -, -]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-3A-Usin. CNC']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Usin. CNC', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Usin. CNC', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Usin. CNC', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-3A-Usin. CNC', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['ELM-1NA-processos de Usinagem 1', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-, 'ELM-1NA-processos de Usinagem 1', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-, -, -, 'ELM-1NA-processos de Usinagem 1']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-, -, 'ELM-1NA-processos de Usinagem 1', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/And. Edson.xlsx
+++ b/data/teacher/And. Edson.xlsx
@@ -734,12 +734,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-Usin. CNC', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-Usin. CNC']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -766,12 +766,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[-, 'MEC-3A-Usin. CNC', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-3A-Usin. CNC']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usin. CNC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -872,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usin. CNC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usin. CNC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usin. CNC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/data/teacher/And. Edson.xlsx
+++ b/data/teacher/And. Edson.xlsx
@@ -776,7 +776,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-3A-Usin. CNC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MEC-3A-Usin. CNC</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
